--- a/src/experiment/results/wilcoxon/ionosphere/merged_ionosphere_data.xlsx
+++ b/src/experiment/results/wilcoxon/ionosphere/merged_ionosphere_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Best_cpu_threads</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Best_n_features</t>
         </is>
       </c>
@@ -511,7 +516,10 @@
       <c r="H2" t="n">
         <v>12</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,7 +552,10 @@
       <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -577,7 +588,10 @@
       <c r="H4" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,7 +624,10 @@
       <c r="H5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -643,7 +660,10 @@
       <c r="H6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,7 +696,10 @@
       <c r="H7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -709,7 +732,10 @@
       <c r="H8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,7 +768,10 @@
       <c r="H9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -775,7 +804,10 @@
       <c r="H10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -808,7 +840,10 @@
       <c r="H11" t="n">
         <v>12</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -841,7 +876,10 @@
       <c r="H12" t="n">
         <v>14</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -874,7 +912,10 @@
       <c r="H13" t="n">
         <v>14</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -907,7 +948,10 @@
       <c r="H14" t="n">
         <v>14</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -940,7 +984,10 @@
       <c r="H15" t="n">
         <v>14</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -973,7 +1020,10 @@
       <c r="H16" t="n">
         <v>14</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1006,7 +1056,10 @@
       <c r="H17" t="n">
         <v>14</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1039,7 +1092,10 @@
       <c r="H18" t="n">
         <v>14</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1072,7 +1128,10 @@
       <c r="H19" t="n">
         <v>14</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1105,7 +1164,10 @@
       <c r="H20" t="n">
         <v>14</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1138,7 +1200,10 @@
       <c r="H21" t="n">
         <v>14</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1171,7 +1236,10 @@
       <c r="H22" t="n">
         <v>12</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1204,7 +1272,10 @@
       <c r="H23" t="n">
         <v>12</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1237,7 +1308,10 @@
       <c r="H24" t="n">
         <v>12</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1270,7 +1344,10 @@
       <c r="H25" t="n">
         <v>12</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1303,7 +1380,10 @@
       <c r="H26" t="n">
         <v>12</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1336,7 +1416,10 @@
       <c r="H27" t="n">
         <v>12</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1369,7 +1452,10 @@
       <c r="H28" t="n">
         <v>12</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1402,7 +1488,10 @@
       <c r="H29" t="n">
         <v>12</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1435,7 +1524,10 @@
       <c r="H30" t="n">
         <v>12</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1468,7 +1560,10 @@
       <c r="H31" t="n">
         <v>12</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1501,7 +1596,10 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1534,7 +1632,10 @@
       <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1567,7 +1668,10 @@
       <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1600,7 +1704,10 @@
       <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1633,7 +1740,10 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1666,7 +1776,10 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1699,7 +1812,10 @@
       <c r="H38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1732,7 +1848,10 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1765,7 +1884,10 @@
       <c r="H40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1798,7 +1920,10 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1829,7 +1954,10 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1860,7 +1988,10 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1891,7 +2022,10 @@
       <c r="H44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1922,7 +2056,10 @@
       <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1953,7 +2090,10 @@
       <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1984,7 +2124,10 @@
       <c r="H47" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2015,7 +2158,10 @@
       <c r="H48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2046,7 +2192,10 @@
       <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2077,7 +2226,10 @@
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2108,7 +2260,10 @@
       <c r="H51" t="n">
         <v>2</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2139,7 +2294,10 @@
       <c r="H52" t="n">
         <v>10</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2170,7 +2328,10 @@
       <c r="H53" t="n">
         <v>10</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2201,7 +2362,10 @@
       <c r="H54" t="n">
         <v>10</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2232,7 +2396,10 @@
       <c r="H55" t="n">
         <v>10</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2263,7 +2430,10 @@
       <c r="H56" t="n">
         <v>10</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2294,7 +2464,10 @@
       <c r="H57" t="n">
         <v>10</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2325,7 +2498,10 @@
       <c r="H58" t="n">
         <v>10</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2356,7 +2532,10 @@
       <c r="H59" t="n">
         <v>10</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2387,7 +2566,10 @@
       <c r="H60" t="n">
         <v>10</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2418,7 +2600,10 @@
       <c r="H61" t="n">
         <v>10</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2449,7 +2634,10 @@
       <c r="H62" t="n">
         <v>11</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2480,7 +2668,10 @@
       <c r="H63" t="n">
         <v>11</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2511,7 +2702,10 @@
       <c r="H64" t="n">
         <v>11</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2542,7 +2736,10 @@
       <c r="H65" t="n">
         <v>11</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2573,7 +2770,10 @@
       <c r="H66" t="n">
         <v>11</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2604,7 +2804,10 @@
       <c r="H67" t="n">
         <v>11</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2635,7 +2838,10 @@
       <c r="H68" t="n">
         <v>11</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2666,7 +2872,10 @@
       <c r="H69" t="n">
         <v>11</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2697,7 +2906,10 @@
       <c r="H70" t="n">
         <v>11</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2728,7 +2940,10 @@
       <c r="H71" t="n">
         <v>11</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2759,7 +2974,10 @@
       <c r="H72" t="n">
         <v>2</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2790,7 +3008,10 @@
       <c r="H73" t="n">
         <v>2</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2821,7 +3042,10 @@
       <c r="H74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2852,7 +3076,10 @@
       <c r="H75" t="n">
         <v>2</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2883,7 +3110,10 @@
       <c r="H76" t="n">
         <v>2</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2914,7 +3144,10 @@
       <c r="H77" t="n">
         <v>2</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2945,7 +3178,10 @@
       <c r="H78" t="n">
         <v>2</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2976,7 +3212,10 @@
       <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3007,7 +3246,10 @@
       <c r="H80" t="n">
         <v>2</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3038,7 +3280,10 @@
       <c r="H81" t="n">
         <v>2</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3067,7 +3312,8 @@
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3098,7 +3344,8 @@
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3129,7 +3376,8 @@
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3160,7 +3408,8 @@
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3191,7 +3440,8 @@
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3222,7 +3472,8 @@
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3253,7 +3504,8 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3284,7 +3536,8 @@
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3315,7 +3568,8 @@
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3346,7 +3600,8 @@
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3377,7 +3632,8 @@
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3408,7 +3664,8 @@
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3439,7 +3696,8 @@
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3470,7 +3728,8 @@
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3501,7 +3760,8 @@
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3532,7 +3792,8 @@
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3563,7 +3824,8 @@
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3594,7 +3856,8 @@
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3625,7 +3888,8 @@
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3656,7 +3920,8 @@
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3687,7 +3952,8 @@
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3718,7 +3984,8 @@
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3749,7 +4016,8 @@
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3780,7 +4048,8 @@
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3811,7 +4080,8 @@
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3842,7 +4112,8 @@
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3873,7 +4144,8 @@
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3904,7 +4176,8 @@
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3935,7 +4208,8 @@
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3966,7 +4240,8 @@
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3997,7 +4272,8 @@
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4028,7 +4304,8 @@
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4059,7 +4336,8 @@
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4090,7 +4368,8 @@
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4121,7 +4400,8 @@
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4152,7 +4432,8 @@
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="n">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4183,7 +4464,8 @@
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="n">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4214,7 +4496,8 @@
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="n">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4245,7 +4528,8 @@
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4276,7 +4560,8 @@
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="n">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4308,6 +4593,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4337,6 +4623,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4366,6 +4653,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4395,6 +4683,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4424,6 +4713,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4453,6 +4743,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4482,6 +4773,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4511,6 +4803,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4540,6 +4833,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4569,6 +4863,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4598,6 +4893,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4627,6 +4923,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4656,6 +4953,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4685,6 +4983,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4714,6 +5013,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4743,6 +5043,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4772,6 +5073,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4801,6 +5103,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4830,6 +5133,7 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4859,6 +5163,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4888,6 +5193,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4917,6 +5223,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4946,6 +5253,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4975,6 +5283,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5004,6 +5313,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5033,6 +5343,7 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5062,6 +5373,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5091,6 +5403,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5120,6 +5433,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5149,6 +5463,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5178,6 +5493,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5207,6 +5523,7 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5236,6 +5553,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5265,6 +5583,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5294,6 +5613,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5323,6 +5643,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5352,6 +5673,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5381,6 +5703,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5410,6 +5733,7 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5439,6 +5763,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5468,6 +5793,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5497,6 +5823,7 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5526,6 +5853,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5555,6 +5883,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5584,6 +5913,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5613,6 +5943,7 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5642,6 +5973,7 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5671,6 +6003,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5700,6 +6033,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5729,6 +6063,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5758,6 +6093,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5787,6 +6123,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5816,6 +6153,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5845,6 +6183,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5874,6 +6213,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5903,6 +6243,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5932,6 +6273,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5961,6 +6303,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5990,6 +6333,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6019,6 +6363,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6048,6 +6393,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6077,6 +6423,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6106,6 +6453,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6135,6 +6483,7 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6164,6 +6513,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6193,6 +6543,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6222,6 +6573,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6251,6 +6603,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6280,6 +6633,7 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6309,6 +6663,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6338,6 +6693,7 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6367,6 +6723,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6396,6 +6753,7 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6425,6 +6783,7 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6454,6 +6813,7 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6483,6 +6843,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6512,6 +6873,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6541,6 +6903,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6570,6 +6933,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6599,6 +6963,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
